--- a/기사정보1.xlsx
+++ b/기사정보1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new\Documents\GitHub\logi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFEF5F5-B8A4-47CD-AF17-9F65893F52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29CD0CF-1D66-4F99-846D-71DB36BAC7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8692C5C3-12A4-4FBB-B4A6-367D96DEA716}"/>
+    <workbookView xWindow="1845" yWindow="4290" windowWidth="36555" windowHeight="12270" xr2:uid="{8692C5C3-12A4-4FBB-B4A6-367D96DEA716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>연락처</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>개별화물</t>
-  </si>
-  <si>
-    <t>기사님정보</t>
   </si>
   <si>
     <t>기사명</t>
@@ -415,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,10 +430,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -751,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA0329-24B5-48A5-B2D3-31EDE085E4CC}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -770,393 +763,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
